--- a/Replenishment_List.xlsx
+++ b/Replenishment_List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1044DC-1F6B-45D1-8EEB-A4E28D944C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE332DC-ADAE-48A1-955C-5F29FBAE4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{111B8FAC-7EE2-4C9F-9DFB-DC470C985F2C}"/>
+    <workbookView xWindow="1905" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{111B8FAC-7EE2-4C9F-9DFB-DC470C985F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Pharmacist ID</t>
   </si>
@@ -49,24 +49,11 @@
   <si>
     <t>Status</t>
   </si>
-  <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>Paracetamol</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>approved</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,40 +419,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3714F9-60E2-451C-99B1-3B13B5B9DA17}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>2000.0</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
